--- a/Technology/Software/Zoom Video Communications.xlsx
+++ b/Technology/Software/Zoom Video Communications.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6088EB0-8AD9-E641-AF50-0D8FC1A87BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE28C2-4781-7641-9427-31EAA351A4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -556,18 +559,35 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -730,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -836,62 +856,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -944,104 +920,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,6 +1030,1235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Zoom Video Communications</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30152823920265781"/>
+          <c:y val="2.7130143512050484E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4790697674418611E-2"/>
+          <c:y val="0.17814330483600149"/>
+          <c:w val="0.8321196013289035"/>
+          <c:h val="0.58829927111771918"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60817000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151478000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330517000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>622658000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2651368000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4099864000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4392960000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CD5-884E-9A65-4C66747FA172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-14000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3822000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7584000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25305000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>672316000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1375639000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103704000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CD5-884E-9A65-4C66747FA172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levered FCF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$107:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4537000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9688000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20882000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113667000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385362000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1459658000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1186436000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0CD5-884E-9A65-4C66747FA172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1251911807"/>
+        <c:axId val="1251913535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1251911807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251913535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1251913535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251911807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34365689172574354"/>
+          <c:y val="0.88978886553275482"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="6.9515919199169426E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1555750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02C7D6-9953-C2B4-2FF0-6E0DC88D9E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1776,10 +2975,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
+      <selection pane="bottomRight" activeCell="R109" sqref="R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1814,19 +3013,19 @@
       <c r="H1" s="8">
         <v>2023</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2024</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2025</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2026</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2027</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>2028</v>
       </c>
     </row>
@@ -1896,19 +3095,19 @@
       <c r="H3" s="1">
         <v>4392960000</v>
       </c>
-      <c r="I3" s="29">
-        <v>4476000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>4682000000</v>
-      </c>
-      <c r="K3" s="29">
-        <v>4904000000</v>
-      </c>
-      <c r="L3" s="29">
+      <c r="I3" s="25">
+        <v>4475000000</v>
+      </c>
+      <c r="J3" s="25">
+        <v>4677000000</v>
+      </c>
+      <c r="K3" s="25">
+        <v>4895000000</v>
+      </c>
+      <c r="L3" s="25">
         <v>5519000000</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="25">
         <v>5976000000</v>
       </c>
       <c r="N3" s="19" t="s">
@@ -1955,19 +3154,19 @@
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>1.8902972027972087E-2</v>
+        <v>1.8675335081585143E-2</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>4.602323503127792E-2</v>
+        <v>4.5139664804469293E-2</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>4.7415634344297297E-2</v>
+        <v>4.6611075475732289E-2</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12540783034257741</v>
+        <v>0.12747701736465777</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
@@ -2432,24 +3631,24 @@
       <c r="H16" s="1">
         <v>4147531000</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="26">
         <f>(H35+G35+F35+E35+D35)/5</f>
         <v>2.3677633332456323E-2</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="34">
         <f>P101/H3</f>
         <v>4.5685331234520685</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="34">
         <f>P101/H28</f>
         <v>193.5256428874489</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="36">
         <f>P101/H107</f>
         <v>16.915689738005252</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2475,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2503,8 +3702,17 @@
       <c r="N18" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="O18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2529,12 +3737,39 @@
       <c r="H19" s="10">
         <v>332796000</v>
       </c>
-      <c r="N19" s="33">
+      <c r="I19" s="39">
+        <v>1742000000</v>
+      </c>
+      <c r="J19" s="39">
+        <v>1797000000</v>
+      </c>
+      <c r="K19" s="39">
+        <v>1843000000</v>
+      </c>
+      <c r="L19" s="39">
+        <v>2914000000</v>
+      </c>
+      <c r="M19" s="39">
+        <v>3572000000</v>
+      </c>
+      <c r="N19" s="27">
         <f>H40-H56-H61</f>
         <v>5338979000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="34">
+        <f>P101/I3</f>
+        <v>4.4847783843575417</v>
+      </c>
+      <c r="P19" s="35">
+        <f>P101/I28</f>
+        <v>15.181076603630862</v>
+      </c>
+      <c r="Q19" s="36">
+        <f>P101/I106</f>
+        <v>14.173293269774012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -2560,11 +3795,31 @@
         <v>0.62658740880843022</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ref="H20" si="5">(H19/G19)-1</f>
+        <f t="shared" ref="H20:M20" si="5">(H19/G19)-1</f>
         <v>-0.71056687133638308</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I20" s="16">
+        <f t="shared" si="5"/>
+        <v>4.234437913917235</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="5"/>
+        <v>3.1572904707233063E-2</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="5"/>
+        <v>2.5598219254312715E-2</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.58111774281063489</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22580645161290325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -2589,8 +3844,34 @@
       <c r="H21" s="2">
         <v>7.5800000000000006E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I21" s="40">
+        <f>I19/I3</f>
+        <v>0.38927374301675977</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" ref="J21:M21" si="6">J19/J3</f>
+        <v>0.38422065426555485</v>
+      </c>
+      <c r="K21" s="40">
+        <f t="shared" si="6"/>
+        <v>0.37650663942798773</v>
+      </c>
+      <c r="L21" s="40">
+        <f t="shared" si="6"/>
+        <v>0.52799420184816093</v>
+      </c>
+      <c r="M21" s="40">
+        <f t="shared" si="6"/>
+        <v>0.59772423025435073</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2615,8 +3896,16 @@
       <c r="H22" s="10">
         <v>245429000</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="P22" s="37">
+        <f>H98/P101</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="38">
+        <f>H107/P101</f>
+        <v>5.9116714451983257E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -2642,7 +3931,7 @@
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +3957,7 @@
         <v>3847000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2694,7 +3983,7 @@
         <v>249276000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -2720,7 +4009,7 @@
         <v>5.67E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -2746,7 +4035,7 @@
         <v>145565000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -2771,8 +4060,23 @@
       <c r="H28" s="11">
         <v>103704000</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="41">
+        <v>1322000000</v>
+      </c>
+      <c r="J28" s="41">
+        <v>1378000000</v>
+      </c>
+      <c r="K28" s="41">
+        <v>1446000000</v>
+      </c>
+      <c r="L28" s="41">
+        <v>1510000000</v>
+      </c>
+      <c r="M28" s="41">
+        <v>1660000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -2794,15 +4098,35 @@
         <v>25.568504248172299</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" ref="G29:H29" si="6">(G28/F28)-1</f>
+        <f t="shared" ref="G29:L29" si="7">(G28/F28)-1</f>
         <v>1.0461196818162888</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.92461394304755828</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I29" s="16">
+        <f t="shared" si="7"/>
+        <v>11.747820720512227</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="7"/>
+        <v>4.2360060514372133E-2</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="7"/>
+        <v>4.9346879535558719E-2</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="7"/>
+        <v>4.4260027662517354E-2</v>
+      </c>
+      <c r="M29" s="16">
+        <f>M28/L28-1</f>
+        <v>9.9337748344370924E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -2827,8 +4151,28 @@
       <c r="H30" s="2">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I30" s="42">
+        <f>I28/I3</f>
+        <v>0.2954189944134078</v>
+      </c>
+      <c r="J30" s="42">
+        <f t="shared" ref="J30:M30" si="8">J28/J3</f>
+        <v>0.29463331195210607</v>
+      </c>
+      <c r="K30" s="42">
+        <f t="shared" si="8"/>
+        <v>0.29540347293156283</v>
+      </c>
+      <c r="L30" s="42">
+        <f t="shared" si="8"/>
+        <v>0.27360028990759194</v>
+      </c>
+      <c r="M30" s="42">
+        <f t="shared" si="8"/>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -2853,8 +4197,23 @@
       <c r="H31" s="12">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I31" s="43">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J31" s="43">
+        <v>4.63</v>
+      </c>
+      <c r="K31" s="43">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="L31" s="43">
+        <v>5.07</v>
+      </c>
+      <c r="M31" s="43">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -2942,23 +4301,23 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="9">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-5.3967308359241767E-2</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17235547502152337</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" ref="G35" si="8">(G34-F34)/F34</f>
+        <f t="shared" ref="G35" si="10">(G34-F34)/F34</f>
         <v>0</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" ref="H35" si="9">(H34-G34)/G34</f>
+        <f t="shared" ref="H35" si="11">(H34-G34)/G34</f>
         <v>0</v>
       </c>
     </row>
@@ -4131,11 +5490,11 @@
         <v>0.1040285618593873</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" ref="G80:H80" si="10">G79/G3</f>
+        <f t="shared" ref="G80:H80" si="12">G79/G3</f>
         <v>0.11641532499614621</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.29268465909090907</v>
       </c>
     </row>
@@ -4216,10 +5575,10 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="66" t="s">
+      <c r="O83" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="P83" s="67"/>
+      <c r="P83" s="68"/>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4246,7 +5605,7 @@
       <c r="H84" s="1">
         <v>11611000</v>
       </c>
-      <c r="O84" s="68" t="s">
+      <c r="O84" s="69" t="s">
         <v>125</v>
       </c>
       <c r="P84" s="69"/>
@@ -4276,10 +5635,10 @@
       <c r="H85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O85" s="24" t="s">
+      <c r="O85" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="P85" s="25">
+      <c r="P85" s="45">
         <f>H17</f>
         <v>0</v>
       </c>
@@ -4309,10 +5668,10 @@
       <c r="H86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O86" s="24" t="s">
+      <c r="O86" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="P86" s="25">
+      <c r="P86" s="45">
         <f>H56</f>
         <v>0</v>
       </c>
@@ -4342,10 +5701,10 @@
       <c r="H87" s="10">
         <v>1290262000</v>
       </c>
-      <c r="O87" s="24" t="s">
+      <c r="O87" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="P87" s="25">
+      <c r="P87" s="45">
         <f>H61</f>
         <v>73687000</v>
       </c>
@@ -4375,10 +5734,10 @@
       <c r="H88" s="1">
         <v>-103826000</v>
       </c>
-      <c r="O88" s="34" t="s">
+      <c r="O88" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="P88" s="35">
+      <c r="P88" s="47">
         <f>P85/(P86+P87)</f>
         <v>0</v>
       </c>
@@ -4408,17 +5767,17 @@
         <v>3.0162542506358983E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" ref="G89:H89" si="11">(-1*G88)/G3</f>
+        <f t="shared" ref="G89:H89" si="13">(-1*G88)/G3</f>
         <v>3.2340097134929351E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3634633595571095E-2</v>
       </c>
-      <c r="O89" s="24" t="s">
+      <c r="O89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="P89" s="25">
+      <c r="P89" s="45">
         <f>H27</f>
         <v>145565000</v>
       </c>
@@ -4448,10 +5807,10 @@
       <c r="H90" s="1">
         <v>-120553000</v>
       </c>
-      <c r="O90" s="24" t="s">
+      <c r="O90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="25">
+      <c r="P90" s="45">
         <f>H25</f>
         <v>249276000</v>
       </c>
@@ -4481,10 +5840,10 @@
       <c r="H91" s="1">
         <v>-2918171000</v>
       </c>
-      <c r="O91" s="34" t="s">
+      <c r="O91" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="P91" s="35">
+      <c r="P91" s="47">
         <f>P89/P90</f>
         <v>0.58395112245061698</v>
       </c>
@@ -4514,10 +5873,10 @@
       <c r="H92" s="1">
         <v>2835196000</v>
       </c>
-      <c r="O92" s="36" t="s">
+      <c r="O92" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="P92" s="37">
+      <c r="P92" s="47">
         <f>P88*(1-P91)</f>
         <v>0</v>
       </c>
@@ -4547,7 +5906,7 @@
       <c r="H93" s="1">
         <v>-10968000</v>
       </c>
-      <c r="O93" s="68" t="s">
+      <c r="O93" s="69" t="s">
         <v>132</v>
       </c>
       <c r="P93" s="69"/>
@@ -4577,11 +5936,12 @@
       <c r="H94" s="10">
         <v>-318322000</v>
       </c>
-      <c r="O94" s="24" t="s">
+      <c r="O94" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="P94" s="38">
-        <v>4.095E-2</v>
+      <c r="P94" s="48">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4609,10 +5969,10 @@
       <c r="H95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O95" s="60" t="s">
+      <c r="O95" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="P95" s="59">
+      <c r="P95" s="50">
         <v>0.61</v>
       </c>
     </row>
@@ -4641,10 +6001,10 @@
       <c r="H96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O96" s="24" t="s">
+      <c r="O96" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="P96" s="38">
+      <c r="P96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4673,12 +6033,12 @@
       <c r="H97" s="1">
         <v>-1000003000</v>
       </c>
-      <c r="O97" s="36" t="s">
+      <c r="O97" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="P97" s="37">
+      <c r="P97" s="47">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>6.7210500000000006E-2</v>
+        <v>6.6496799999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -4703,10 +6063,10 @@
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O98" s="68" t="s">
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="69" t="s">
         <v>137</v>
       </c>
       <c r="P98" s="69"/>
@@ -4736,10 +6096,10 @@
       <c r="H99" s="1">
         <v>63061000</v>
       </c>
-      <c r="O99" s="24" t="s">
+      <c r="O99" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="P99" s="25">
+      <c r="P99" s="45">
         <f>P86+P87</f>
         <v>73687000</v>
       </c>
@@ -4769,10 +6129,10 @@
       <c r="H100" s="10">
         <v>-936942000</v>
       </c>
-      <c r="O100" s="34" t="s">
+      <c r="O100" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="P100" s="35">
+      <c r="P100" s="47">
         <f>P99/P103</f>
         <v>3.6581811517455427E-3</v>
       </c>
@@ -4802,10 +6162,10 @@
       <c r="H101" s="1">
         <v>-8108000</v>
       </c>
-      <c r="O101" s="24" t="s">
+      <c r="O101" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="P101" s="39" cm="1">
+      <c r="P101" s="51" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
         <v>20069383270</v>
       </c>
@@ -4835,10 +6195,10 @@
       <c r="H102" s="10">
         <v>26890000</v>
       </c>
-      <c r="O102" s="34" t="s">
+      <c r="O102" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="P102" s="35">
+      <c r="P102" s="47">
         <f>P101/P103</f>
         <v>0.99634181884825446</v>
       </c>
@@ -4868,10 +6228,10 @@
       <c r="H103" s="1">
         <v>1073353000</v>
       </c>
-      <c r="O103" s="36" t="s">
+      <c r="O103" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="P103" s="40">
+      <c r="P103" s="52">
         <f>P99+P101</f>
         <v>20143070270</v>
       </c>
@@ -4901,7 +6261,7 @@
       <c r="H104" s="11">
         <v>1100243000</v>
       </c>
-      <c r="O104" s="68" t="s">
+      <c r="O104" s="69" t="s">
         <v>143</v>
       </c>
       <c r="P104" s="69"/>
@@ -4911,62 +6271,62 @@
         <v>156</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105" si="12">((B22*(1-$AU$91))+B77+B88-B81)</f>
+        <f t="shared" ref="B105" si="14">((B22*(1-$AU$91))+B77+B88-B81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ref="C105:G105" si="13">((C22*(1-$P$91))+C77+C88-C81)</f>
+        <f t="shared" ref="C105:G105" si="15">((C22*(1-$P$91))+C77+C88-C81)</f>
         <v>-9250764.2251961678</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-23828226.572152957</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-4093843.4506330341</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-96437980.246794701</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>544557841.7216258</v>
       </c>
       <c r="H105" s="1">
         <f>((H22*(1-$P$91))+H77+H88-H81)</f>
         <v>103578459.96806753</v>
       </c>
-      <c r="I105" s="41">
+      <c r="I105" s="28">
         <f>H105*(1+$P$106)</f>
-        <v>110218968.83102356</v>
-      </c>
-      <c r="J105" s="41">
-        <f t="shared" ref="J105:M105" si="14">I105*(1+$P$106)</f>
-        <v>117285206.73042782</v>
-      </c>
-      <c r="K105" s="41">
-        <f t="shared" si="14"/>
-        <v>124804467.54032154</v>
-      </c>
-      <c r="L105" s="41">
-        <f t="shared" si="14"/>
-        <v>132805794.96972641</v>
-      </c>
-      <c r="M105" s="41">
-        <f t="shared" si="14"/>
-        <v>141320094.74614975</v>
-      </c>
-      <c r="N105" s="42" t="s">
+        <v>110222147.05279723</v>
+      </c>
+      <c r="J105" s="28">
+        <f t="shared" ref="J105:M105" si="16">I105*(1+$P$106)</f>
+        <v>117291970.78884818</v>
+      </c>
+      <c r="K105" s="28">
+        <f t="shared" si="16"/>
+        <v>124815264.25848077</v>
+      </c>
+      <c r="L105" s="28">
+        <f t="shared" si="16"/>
+        <v>132821113.73130397</v>
+      </c>
+      <c r="M105" s="28">
+        <f t="shared" si="16"/>
+        <v>141340471.11649895</v>
+      </c>
+      <c r="N105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O105" s="26" t="s">
+      <c r="O105" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="P105" s="27">
+      <c r="P105" s="54">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>6.6964631815700615E-2</v>
+        <v>6.6253542659588605E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -4975,57 +6335,57 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:G106" si="15">(C105/B105)-1</f>
+        <f t="shared" ref="C106:G106" si="17">(C105/B105)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5758116834555542</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.82819353180830768</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.556831473827469</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-6.6467155401642213</v>
       </c>
       <c r="H106" s="15">
         <f>(H105/G105)-1</f>
         <v>-0.80979346539092512</v>
       </c>
-      <c r="I106" s="62">
+      <c r="I106" s="32">
         <v>1416000000</v>
       </c>
-      <c r="J106" s="62">
-        <v>1465000000</v>
-      </c>
-      <c r="K106" s="62">
-        <v>1507000000</v>
-      </c>
-      <c r="L106" s="62">
-        <v>2612000000</v>
-      </c>
-      <c r="M106" s="62">
-        <v>3207000000</v>
-      </c>
-      <c r="N106" s="42" t="s">
+      <c r="J106" s="32">
+        <v>1478000000</v>
+      </c>
+      <c r="K106" s="32">
+        <v>1504000000</v>
+      </c>
+      <c r="L106" s="32">
+        <v>2684000000</v>
+      </c>
+      <c r="M106" s="32">
+        <v>3272000000</v>
+      </c>
+      <c r="N106" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="O106" s="43" t="s">
+      <c r="O106" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="P106" s="44">
+      <c r="P106" s="56">
         <f>(SUM(I4:M4)/5)</f>
-        <v>6.4110905539657995E-2</v>
+        <v>6.4141589735721954E-2</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B107" s="1">
@@ -5049,139 +6409,139 @@
       <c r="H107" s="1">
         <v>1186436000</v>
       </c>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="63">
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="33">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>78332034805.798981</v>
-      </c>
-      <c r="N107" s="46" t="s">
+        <v>72155337907.033401</v>
+      </c>
+      <c r="N107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="47" t="s">
+      <c r="O107" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="P107" s="48">
-        <v>2.5000000000000001E-2</v>
+      <c r="P107" s="58">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I108" s="45">
-        <f>I107+I105</f>
-        <v>110218968.83102356</v>
-      </c>
-      <c r="J108" s="45">
-        <f>J107+J105</f>
-        <v>117285206.73042782</v>
-      </c>
-      <c r="K108" s="45">
-        <f>K107+K105</f>
-        <v>124804467.54032154</v>
-      </c>
-      <c r="L108" s="45">
-        <f>L107+L105</f>
-        <v>132805794.96972641</v>
-      </c>
-      <c r="M108" s="63">
+      <c r="I108" s="33">
+        <f t="shared" ref="I108:L108" si="18">I107+I106</f>
+        <v>1416000000</v>
+      </c>
+      <c r="J108" s="33">
+        <f t="shared" si="18"/>
+        <v>1478000000</v>
+      </c>
+      <c r="K108" s="33">
+        <f t="shared" si="18"/>
+        <v>1504000000</v>
+      </c>
+      <c r="L108" s="33">
+        <f t="shared" si="18"/>
+        <v>2684000000</v>
+      </c>
+      <c r="M108" s="33">
         <f>M107+M106</f>
-        <v>81539034805.798981</v>
-      </c>
-      <c r="N108" s="46" t="s">
+        <v>75427337907.033401</v>
+      </c>
+      <c r="N108" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="O108" s="49" t="s">
+      <c r="O108" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="P108" s="50">
+      <c r="P108" s="56">
         <f>P105</f>
-        <v>6.6964631815700615E-2</v>
+        <v>6.6253542659588605E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="64" t="s">
+      <c r="I109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="J109" s="65"/>
+      <c r="J109" s="66"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I110" s="51" t="s">
+      <c r="I110" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="J110" s="39">
+      <c r="J110" s="51">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>59379422009.462234</v>
+        <v>60675397654.190178</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I111" s="51" t="s">
+      <c r="I111" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="J111" s="39">
+      <c r="J111" s="51">
         <f>H40</f>
         <v>5412666000</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I112" s="51" t="s">
+      <c r="I112" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="J112" s="39">
+      <c r="J112" s="51">
         <f>P99</f>
         <v>73687000</v>
       </c>
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="51" t="s">
+      <c r="I113" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="J113" s="39">
+      <c r="J113" s="51">
         <f>J110+J111-J112</f>
-        <v>64718401009.462234</v>
+        <v>66014376654.190178</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" s="51" t="s">
+      <c r="I114" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="J114" s="52">
+      <c r="J114" s="60">
         <f>H34*(1+(5*N16))</f>
         <v>333422457.16420954</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="53" t="s">
+      <c r="I115" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="J115" s="54">
+      <c r="J115" s="62">
         <f>J113/J114</f>
-        <v>194.10330533791435</v>
+        <v>197.9901930291345</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="51" t="s">
+      <c r="I116" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="J116" s="55" cm="1">
+      <c r="J116" s="63" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
         <v>67.45</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="56" t="s">
+      <c r="I117" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="J117" s="57">
+      <c r="J117" s="64">
         <f>J115/J116-1</f>
-        <v>1.8777361799542525</v>
+        <v>1.9353623873852408</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I118" s="56" t="s">
+      <c r="I118" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="J118" s="58" t="str">
+      <c r="J118" s="65" t="str">
         <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -5215,5 +6575,6 @@
     <hyperlink ref="N106" r:id="rId17" xr:uid="{DB5FB0B4-FC2B-5141-B6D3-A7BE979612FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>